--- a/Enrichment.xlsx
+++ b/Enrichment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fixer recommendation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>project</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>scp</t>
+  </si>
+  <si>
+    <t>jss</t>
+  </si>
+  <si>
+    <t>JSS means performance comparison with REPtopic(JSS)</t>
   </si>
   <si>
     <t>parameters</t>
@@ -310,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -331,14 +337,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,6 +373,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -389,25 +394,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,7 +428,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,22 +457,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,12 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -518,7 +518,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,13 +566,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,133 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,75 +688,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -780,8 +715,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,133 +805,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,7 +963,16 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -972,19 +981,10 @@
     <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,8 +1304,8 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2515,17 +2515,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="10.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667"/>
-    <col min="9" max="12" width="9.66666666666667"/>
+    <col min="8" max="11" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2646,7 +2645,7 @@
         <v>0.307856</v>
       </c>
       <c r="D8" s="8">
-        <v>0.320208</v>
+        <v>0.315318</v>
       </c>
       <c r="E8" s="8">
         <v>0.394621</v>
@@ -2661,261 +2660,318 @@
         <v>0.305127</v>
       </c>
       <c r="D9" s="8">
-        <v>0.320188</v>
+        <v>0.309213</v>
       </c>
       <c r="E9" s="8">
         <v>0.360964</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.297391</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.29494</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.346229</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>0.215295</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>0.320171</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E11" s="5">
         <v>0.283098</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.274363</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.39624</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.363114</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:5">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.252397</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.309375</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.32291</v>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.274363</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.39624</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.363114</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
-        <v>0.255186</v>
+        <v>0.252397</v>
       </c>
       <c r="D13" s="8">
-        <v>0.346205</v>
+        <v>0.309375</v>
       </c>
       <c r="E13" s="8">
-        <v>0.324172</v>
+        <v>0.32291</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8">
-        <v>0.218202</v>
+        <v>0.255186</v>
       </c>
       <c r="D14" s="8">
-        <v>0.322501</v>
+        <v>0.346205</v>
       </c>
       <c r="E14" s="8">
-        <v>0.324911</v>
+        <v>0.324172</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8">
-        <v>0.258196</v>
+        <v>0.218202</v>
       </c>
       <c r="D15" s="8">
-        <v>0.36129</v>
+        <v>0.322501</v>
       </c>
       <c r="E15" s="8">
-        <v>0.342198</v>
+        <v>0.324911</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8">
-        <v>0.256084</v>
+        <v>0.258196</v>
       </c>
       <c r="D16" s="8">
-        <v>0.371883</v>
+        <v>0.36129</v>
       </c>
       <c r="E16" s="8">
-        <v>0.34342</v>
+        <v>0.342198</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.256084</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.371883</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.34342</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>0.259204</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>0.369911</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>0.328161</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.207489</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.211885</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.288567</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:5">
       <c r="A19" s="1"/>
-      <c r="B19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.267205</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.345606</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.363114</v>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.230268</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0.370713</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.326496</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.260857</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0.314363</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.334729</v>
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.207489</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.211885</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.288567</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.255499</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0.315586</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0.33519</v>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.267205</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.345606</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.363114</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8">
-        <v>0.223254</v>
+        <v>0.260857</v>
       </c>
       <c r="D22" s="8">
-        <v>0.289498</v>
+        <v>0.314363</v>
       </c>
       <c r="E22" s="8">
-        <v>0.331219</v>
+        <v>0.334729</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8">
-        <v>0.247404</v>
+        <v>0.255499</v>
       </c>
       <c r="D23" s="8">
-        <v>0.309859</v>
+        <v>0.315586</v>
       </c>
       <c r="E23" s="8">
-        <v>0.334537</v>
+        <v>0.33519</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="8">
-        <v>0.261177</v>
+        <v>0.223254</v>
       </c>
       <c r="D24" s="8">
-        <v>0.32846</v>
+        <v>0.289498</v>
       </c>
       <c r="E24" s="8">
-        <v>0.353951</v>
+        <v>0.331219</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.247404</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.309859</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.334537</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.261177</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.32846</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.353951</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C27" s="8">
         <v>0.260269</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D27" s="8">
         <v>0.317927</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E27" s="8">
         <v>0.333935</v>
       </c>
     </row>
+    <row r="28" ht="15.6" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.264787</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.290179</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.339582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
+  <mergeCells count="4">
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2942,10 +2998,10 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -2959,10 +3015,10 @@
     </row>
     <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -2976,10 +3032,10 @@
     </row>
     <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>0.021</v>
@@ -2993,10 +3049,10 @@
     </row>
     <row r="4" ht="15.6" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>0.43</v>
@@ -3010,10 +3066,10 @@
     </row>
     <row r="5" ht="15.6" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>2.2</v>
@@ -3027,10 +3083,10 @@
     </row>
     <row r="6" ht="15.6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
         <v>1.54</v>
@@ -3044,10 +3100,10 @@
     </row>
     <row r="7" ht="15.6" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>0.66</v>
@@ -3061,10 +3117,10 @@
     </row>
     <row r="8" ht="15.6" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <v>1.32</v>
@@ -3078,10 +3134,10 @@
     </row>
     <row r="9" ht="15.6" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>0.84</v>
@@ -3095,10 +3151,10 @@
     </row>
     <row r="10" ht="15.6" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -3112,10 +3168,10 @@
     </row>
     <row r="11" ht="15.6" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>0.09</v>
@@ -3129,10 +3185,10 @@
     </row>
     <row r="12" ht="15.6" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2">
         <v>1.11</v>
@@ -3146,10 +3202,10 @@
     </row>
     <row r="13" ht="15.6" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -3163,10 +3219,10 @@
     </row>
     <row r="14" ht="15.6" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2">
         <v>0.38</v>

--- a/Enrichment.xlsx
+++ b/Enrichment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="3"/>
+    <workbookView windowWidth="11424" windowHeight="9515" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fixer recommendation" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Length influence for performanc" sheetId="3" r:id="rId3"/>
     <sheet name="Feature influence for performan" sheetId="4" r:id="rId4"/>
     <sheet name="Parameters" sheetId="5" r:id="rId5"/>
+    <sheet name="others" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>project</t>
   </si>
@@ -310,15 +311,135 @@
   <si>
     <t>k3 in feature2</t>
   </si>
+  <si>
+    <t>0-99（0）</t>
+  </si>
+  <si>
+    <t>100-199（1）</t>
+  </si>
+  <si>
+    <t>200-299（2）</t>
+  </si>
+  <si>
+    <t>300-399（3）</t>
+  </si>
+  <si>
+    <t>400-499（4）</t>
+  </si>
+  <si>
+    <t>over500（5）</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Avg fixing time(days)</t>
+  </si>
+  <si>
+    <t>The ratio of bug reports with the different ingredients</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>atch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ode</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>clipse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ozilla</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -336,14 +457,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,70 +487,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +510,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,16 +585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +639,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,67 +675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,13 +693,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,49 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +809,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,69 +889,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -785,6 +897,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -793,158 +914,158 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -961,9 +1082,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1305,36 +1423,36 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.88888888888889" style="1"/>
-    <col min="7" max="7" width="15.6851851851852" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8888888888889" style="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="1"/>
-    <col min="10" max="10" width="11.5092592592593" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6296296296296" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.88888888888889" style="2"/>
+    <col min="7" max="7" width="15.6851851851852" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.8888888888889" style="2"/>
+    <col min="9" max="9" width="8.88888888888889" style="2"/>
+    <col min="10" max="10" width="11.5092592592593" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.6296296296296" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.5462962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1"/>
@@ -1344,7 +1462,7 @@
       <c r="K1"/>
     </row>
     <row r="2" ht="15.6" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1366,7 +1484,7 @@
       <c r="K2"/>
     </row>
     <row r="3" ht="15.6" spans="2:11">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8">
@@ -1385,7 +1503,7 @@
       <c r="K3"/>
     </row>
     <row r="4" ht="15.6" spans="2:11">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="8">
@@ -1404,7 +1522,7 @@
       <c r="K4"/>
     </row>
     <row r="5" ht="15.6" spans="2:11">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8">
@@ -1423,7 +1541,7 @@
       <c r="K5"/>
     </row>
     <row r="6" ht="15.6" spans="2:11">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="8">
@@ -1442,7 +1560,7 @@
       <c r="K6"/>
     </row>
     <row r="7" ht="15.6" spans="2:11">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8">
@@ -1461,7 +1579,7 @@
       <c r="K7"/>
     </row>
     <row r="8" ht="15.6" spans="2:11">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7">
@@ -1480,10 +1598,10 @@
       <c r="K8"/>
     </row>
     <row r="9" ht="15.6" spans="2:11">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>0.236366</v>
       </c>
       <c r="D9" s="8">
@@ -1499,7 +1617,7 @@
       <c r="K9"/>
     </row>
     <row r="10" ht="15.6" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1521,7 +1639,7 @@
       <c r="K10"/>
     </row>
     <row r="11" ht="15.6" spans="2:11">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="8">
@@ -1540,7 +1658,7 @@
       <c r="K11"/>
     </row>
     <row r="12" ht="15.6" spans="2:11">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="8">
@@ -1559,7 +1677,7 @@
       <c r="K12"/>
     </row>
     <row r="13" ht="15.6" spans="2:11">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="8">
@@ -1578,7 +1696,7 @@
       <c r="K13"/>
     </row>
     <row r="14" ht="15.6" spans="2:11">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
@@ -1597,7 +1715,7 @@
       <c r="K14"/>
     </row>
     <row r="15" ht="15.6" spans="2:11">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8">
@@ -1616,7 +1734,7 @@
       <c r="K15"/>
     </row>
     <row r="16" ht="15.6" spans="2:11">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="8">
@@ -1635,7 +1753,7 @@
       <c r="K16"/>
     </row>
     <row r="17" ht="15.6" spans="2:11">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8">
@@ -1654,7 +1772,7 @@
       <c r="K17"/>
     </row>
     <row r="18" ht="15.6" spans="1:11">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1676,7 +1794,7 @@
       <c r="K18"/>
     </row>
     <row r="19" ht="15.6" spans="2:11">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="8">
@@ -1695,7 +1813,7 @@
       <c r="K19"/>
     </row>
     <row r="20" ht="15.6" spans="2:11">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="7">
@@ -1714,7 +1832,7 @@
       <c r="K20"/>
     </row>
     <row r="21" ht="15.6" spans="2:11">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8">
@@ -1733,7 +1851,7 @@
       <c r="K21"/>
     </row>
     <row r="22" ht="15.6" spans="2:11">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="8">
@@ -1752,7 +1870,7 @@
       <c r="K22"/>
     </row>
     <row r="23" ht="15.6" spans="2:11">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8">
@@ -1771,7 +1889,7 @@
       <c r="K23"/>
     </row>
     <row r="24" ht="15.6" spans="2:11">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="8">
@@ -1790,7 +1908,7 @@
       <c r="K24"/>
     </row>
     <row r="25" ht="15.6" spans="2:11">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="8">
@@ -1905,7 +2023,7 @@
       <c r="K49"/>
     </row>
     <row r="50" spans="12:12">
-      <c r="L50" s="1"/>
+      <c r="L50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1934,347 +2052,347 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.9904</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.008069</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.4777</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.03519</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.5964</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.07794</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.6738</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.07969</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.8089</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.08714</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.8442</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.08961</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>0.5359</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.06837</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>0.6347</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.01361</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.6951</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.04927</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>0.8793</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.05493</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>0.8925</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.07196</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>0.9225</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.05836</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>0.163</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.1421</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>0.7579</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.1678</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>0.9647</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.02897</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>0.9475</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>0.002625</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>0.09444</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>0.002185</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>0.5665</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>0.007925</v>
       </c>
     </row>
@@ -2304,80 +2422,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.192431</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.255735</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.232399</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>0.24226</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.30993</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>0.223918</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
         <v>0.346699</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.304088</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.302329</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>0.292591</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0.394058</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>0.301149</v>
       </c>
     </row>
@@ -2385,115 +2503,115 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>0.259764</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>0.283206</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0.206857</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0.234782</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.203403</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0.236857</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6"/>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>0.364206</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>0.358808</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.273839</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>0.290519</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.278702</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>0.298505</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>0.271113</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>0.343586</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.279833</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0.280823</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>0.189188</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.252586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
         <v>0.377214</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>0.379524</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>0.338725</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0.331385</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>0.307748</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.321371</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <f t="shared" ref="B9:G9" si="0">((B4-B3)+(B6-B5)+(B8-B7))/3</f>
         <v>0.121603666666667</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>0.0532976666666667</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>0.065268</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>0.05221</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>0.0926623333333334</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="0"/>
         <v>0.0692213333333333</v>
       </c>
@@ -2517,8 +2635,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2528,24 +2646,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2562,7 +2680,7 @@
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2695,8 @@
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="8">
@@ -2592,8 +2710,8 @@
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8">
@@ -2607,8 +2725,8 @@
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="8">
@@ -2622,8 +2740,8 @@
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="8">
@@ -2637,8 +2755,8 @@
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
@@ -2652,8 +2770,8 @@
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="8">
@@ -2667,8 +2785,8 @@
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="8">
@@ -2682,7 +2800,7 @@
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2699,7 +2817,7 @@
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:5">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2714,8 +2832,8 @@
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="8">
@@ -2729,8 +2847,8 @@
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="8">
@@ -2744,8 +2862,8 @@
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="8">
@@ -2759,8 +2877,8 @@
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="8">
@@ -2774,8 +2892,8 @@
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="8">
@@ -2789,8 +2907,8 @@
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="8">
@@ -2804,8 +2922,8 @@
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="8">
@@ -2819,7 +2937,7 @@
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:5">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2836,7 +2954,7 @@
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:5">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
@@ -2851,8 +2969,8 @@
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="8">
@@ -2866,8 +2984,8 @@
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="8">
@@ -2881,8 +2999,8 @@
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="8">
@@ -2896,8 +3014,8 @@
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="8">
@@ -2911,8 +3029,8 @@
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="8">
@@ -2926,8 +3044,8 @@
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="8">
@@ -2941,8 +3059,8 @@
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="8">
@@ -2956,15 +3074,15 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2989,18 +3107,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.1111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.4444444444444" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1111111111111" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.2222222222222" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7777777777778" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.4444444444444" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -3014,223 +3132,223 @@
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.021</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.007</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.43</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>2.2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>3.81</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>1.54</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2.54</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.17</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.66</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.003</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.15</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1.32</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.83</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.84</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.8</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1.88</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>0.09</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.122</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>0.03</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>1.11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2.39</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>0.38</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.437</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>0.11</v>
       </c>
     </row>
@@ -3238,4 +3356,517 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="7" width="12.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.6" spans="2:8">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>32198</v>
+      </c>
+      <c r="C2">
+        <v>6995</v>
+      </c>
+      <c r="D2">
+        <v>1333</v>
+      </c>
+      <c r="E2">
+        <v>357</v>
+      </c>
+      <c r="F2">
+        <v>144</v>
+      </c>
+      <c r="G2">
+        <v>196</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>41223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>9033</v>
+      </c>
+      <c r="C3">
+        <v>3665</v>
+      </c>
+      <c r="D3">
+        <v>724</v>
+      </c>
+      <c r="E3">
+        <v>234</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
+        <v>228</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B3:G3)</f>
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>14485</v>
+      </c>
+      <c r="C4">
+        <v>2792</v>
+      </c>
+      <c r="D4">
+        <v>426</v>
+      </c>
+      <c r="E4">
+        <v>119</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B4:G4)</f>
+        <v>17927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="15.6" spans="2:7">
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>409.8</v>
+      </c>
+      <c r="C10">
+        <v>388.8</v>
+      </c>
+      <c r="D10">
+        <v>380</v>
+      </c>
+      <c r="E10">
+        <v>308.3</v>
+      </c>
+      <c r="F10">
+        <v>121</v>
+      </c>
+      <c r="G10">
+        <v>272.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>388.7</v>
+      </c>
+      <c r="C11">
+        <v>366.9</v>
+      </c>
+      <c r="D11">
+        <v>358</v>
+      </c>
+      <c r="E11">
+        <v>247.5</v>
+      </c>
+      <c r="F11">
+        <v>104.9</v>
+      </c>
+      <c r="G11">
+        <v>219.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>362.2</v>
+      </c>
+      <c r="C12">
+        <v>343</v>
+      </c>
+      <c r="D12">
+        <v>314.8</v>
+      </c>
+      <c r="E12">
+        <v>189.6</v>
+      </c>
+      <c r="F12">
+        <v>122.1</v>
+      </c>
+      <c r="G12">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="15.6" spans="1:19">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" ht="15.6" spans="1:19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1530</v>
+      </c>
+      <c r="D18" s="1">
+        <v>764</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1677</v>
+      </c>
+      <c r="F18" s="1">
+        <v>379</v>
+      </c>
+      <c r="G18" s="1">
+        <v>473</v>
+      </c>
+      <c r="H18" s="1">
+        <v>469</v>
+      </c>
+      <c r="I18" s="1">
+        <v>98</v>
+      </c>
+      <c r="J18" s="1">
+        <v>178</v>
+      </c>
+      <c r="K18" s="1">
+        <v>137</v>
+      </c>
+      <c r="L18" s="1">
+        <v>26</v>
+      </c>
+      <c r="M18" s="1">
+        <v>51</v>
+      </c>
+      <c r="N18" s="1">
+        <v>67</v>
+      </c>
+      <c r="O18" s="1">
+        <v>17</v>
+      </c>
+      <c r="P18" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>90</v>
+      </c>
+      <c r="R18" s="1">
+        <v>18</v>
+      </c>
+      <c r="S18" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1">
+        <v>580</v>
+      </c>
+      <c r="D19" s="1">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1">
+        <v>234</v>
+      </c>
+      <c r="G19" s="1">
+        <v>95</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1">
+        <v>76</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34</v>
+      </c>
+      <c r="K19" s="1">
+        <v>11</v>
+      </c>
+      <c r="L19" s="1">
+        <v>28</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>12</v>
+      </c>
+      <c r="P19" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>15</v>
+      </c>
+      <c r="R19" s="1">
+        <v>40</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="1">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1115</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1130</v>
+      </c>
+      <c r="E20" s="1">
+        <v>41</v>
+      </c>
+      <c r="F20" s="1">
+        <v>890</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1377</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>335</v>
+      </c>
+      <c r="J20" s="1">
+        <v>410</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>104</v>
+      </c>
+      <c r="M20" s="1">
+        <v>160</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>38</v>
+      </c>
+      <c r="P20" s="1">
+        <v>67</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>98</v>
+      </c>
+      <c r="S20" s="1">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>